--- a/results/I3_N5_M2_T45_C200_DepCentral_s0_P5_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>845.4619617937733</v>
+        <v>822.8728587124743</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01700019836425781</v>
+        <v>0.006999969482421875</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.33196179377335</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.420950226667207</v>
+        <v>4.02175110787769</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.420950226667207</v>
+        <v>3.836925852814985</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>240.71</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>580.4199999999998</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.069304033334504</v>
+        <v>34.3512412022318</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35.873074152435</v>
+        <v>38.23758910225306</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>2.420950226667209</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>44.16274257244262</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38.9306959666655</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39.71000000524998</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,15 +1057,85 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.86000000000065</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83000000000065</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.34000000000066</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.96000000000065</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>204.43</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>209.84</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>213.885</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>211.205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>220.37</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>93.02999999999935</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>87.77499999999934</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>97.16999999999935</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>85.99499999999935</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>97.73999999999934</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>218.03</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>201.63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>214.44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>215.765</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>210.76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>114.24</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>110.19</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>112.22</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>117.4</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>114.22</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>218.03</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>201.63</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>214.44</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>215.765</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>210.76</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>204.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>209.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>213.885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>211.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>220.37</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>18.03</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.765</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>10.76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4.430000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>9.840000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>13.88499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1677,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>11.20500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1688,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>20.37</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1845,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1856,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1867,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1889,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -1911,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1922,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -1933,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -1944,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -1955,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2095,7 +2165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2106,7 +2176,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2117,7 +2187,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2128,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2139,7 +2209,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
